--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-0.5/avg_0.004_scores.xlsx
@@ -55,22 +55,28 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
@@ -79,70 +85,70 @@
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>great</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>ze</t>
   </si>
   <si>
     <t>ever</t>
@@ -154,10 +160,16 @@
     <t>gift</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>old</t>
@@ -166,136 +178,124 @@
     <t>cook</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>tea</t>
+    <t>day</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
+    <t>far</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>far</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>fast</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>little</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>hot</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>made</t>
   </si>
   <si>
     <t>product</t>
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3875968992248062</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3">
-        <v>0.946236559139785</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -778,37 +778,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3131313131313131</v>
+        <v>0.3775510204081632</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K4">
-        <v>0.8913043478260869</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -828,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2162162162162162</v>
+        <v>0.1837837837837838</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,13 +878,13 @@
         <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>558</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8622291021671826</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7">
-        <v>557</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>557</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +930,13 @@
         <v>17</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -956,13 +956,13 @@
         <v>18</v>
       </c>
       <c r="K9">
-        <v>0.75</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -982,13 +982,13 @@
         <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7402597402597403</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="L10">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1008,13 @@
         <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7316017316017316</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L11">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="M11">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1034,13 @@
         <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7192982456140351</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1060,13 +1060,13 @@
         <v>22</v>
       </c>
       <c r="K13">
-        <v>0.7123287671232876</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L13">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1086,13 +1086,13 @@
         <v>23</v>
       </c>
       <c r="K14">
-        <v>0.688135593220339</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L14">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1112,13 +1112,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1138,13 +1138,13 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1164,13 +1164,13 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6621187800963082</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L17">
-        <v>825</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>825</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>421</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1190,13 +1190,13 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6617647058823529</v>
+        <v>0.6709470304975923</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1216,13 +1216,13 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.6530612244897959</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1242,13 +1242,13 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1268,13 +1268,13 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6428571428571429</v>
+        <v>0.65625</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1294,13 +1294,13 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6228571428571429</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M22">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1320,13 +1320,13 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6078431372549019</v>
+        <v>0.625</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1346,13 +1346,13 @@
         <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6057692307692307</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1372,13 +1372,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.6056338028169014</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1398,13 +1398,13 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6041666666666666</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1424,13 +1424,13 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.5748502994011976</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1450,13 +1450,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5555555555555556</v>
+        <v>0.5808383233532934</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1476,13 +1476,13 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5526315789473685</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1502,13 +1502,13 @@
         <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5263157894736842</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1528,13 +1528,13 @@
         <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5230769230769231</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1554,13 +1554,13 @@
         <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5213675213675214</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L32">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1580,13 +1580,13 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>0.5180722891566265</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1606,13 +1606,13 @@
         <v>43</v>
       </c>
       <c r="K34">
-        <v>0.5112781954887218</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L34">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="M34">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1632,13 +1632,13 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>0.49</v>
+        <v>0.4938271604938271</v>
       </c>
       <c r="L35">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1658,13 +1658,13 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4759036144578313</v>
+        <v>0.481203007518797</v>
       </c>
       <c r="L36">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M36">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1684,13 +1684,13 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4754098360655737</v>
+        <v>0.47</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1710,13 +1710,13 @@
         <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4320987654320987</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L38">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="M38">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1736,25 +1736,25 @@
         <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4135338345864661</v>
+        <v>0.4211822660098522</v>
       </c>
       <c r="L39">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>78</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1762,13 +1762,13 @@
         <v>49</v>
       </c>
       <c r="K40">
-        <v>0.4074074074074074</v>
+        <v>0.4046692607003891</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>64</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1788,13 +1788,13 @@
         <v>50</v>
       </c>
       <c r="K41">
-        <v>0.4068627450980392</v>
+        <v>0.3808219178082192</v>
       </c>
       <c r="L41">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="M41">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>242</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1814,13 +1814,13 @@
         <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3923444976076555</v>
+        <v>0.3693693693693694</v>
       </c>
       <c r="L42">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1840,25 +1840,25 @@
         <v>52</v>
       </c>
       <c r="K43">
-        <v>0.390625</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L43">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M43">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="N43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1866,22 +1866,22 @@
         <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3727272727272727</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>69</v>
@@ -1892,13 +1892,13 @@
         <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3669064748201439</v>
+        <v>0.3597122302158273</v>
       </c>
       <c r="L45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1918,13 +1918,13 @@
         <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3603603603603603</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1944,13 +1944,13 @@
         <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3547945205479452</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L47">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="M47">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>471</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1970,13 +1970,13 @@
         <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3154362416107382</v>
+        <v>0.3465346534653465</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M48">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1996,13 +1996,13 @@
         <v>58</v>
       </c>
       <c r="K49">
-        <v>0.310010764262648</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="L49">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="M49">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>641</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2022,13 +2022,13 @@
         <v>59</v>
       </c>
       <c r="K50">
-        <v>0.3069306930693069</v>
+        <v>0.3110871905274489</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>289</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2048,13 +2048,13 @@
         <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2900662251655629</v>
+        <v>0.304635761589404</v>
       </c>
       <c r="L51">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>536</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2074,25 +2074,25 @@
         <v>61</v>
       </c>
       <c r="K52">
-        <v>0.2672413793103448</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L52">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2100,13 +2100,13 @@
         <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2582781456953642</v>
+        <v>0.2798408488063661</v>
       </c>
       <c r="L53">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="M53">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2115,10 +2115,10 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>112</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2126,25 +2126,25 @@
         <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2570532915360502</v>
+        <v>0.2641025641025641</v>
       </c>
       <c r="L54">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="M54">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>237</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2152,25 +2152,25 @@
         <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2477535301668806</v>
+        <v>0.261744966442953</v>
       </c>
       <c r="L55">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="M55">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>586</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2178,13 +2178,13 @@
         <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2461538461538462</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L56">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="M56">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>98</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2204,13 +2204,13 @@
         <v>66</v>
       </c>
       <c r="K57">
-        <v>0.2459016393442623</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2230,25 +2230,25 @@
         <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2298288508557457</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L58">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="N58">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>315</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2256,13 +2256,13 @@
         <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2248062015503876</v>
+        <v>0.218978102189781</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M59">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>100</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2282,13 +2282,13 @@
         <v>69</v>
       </c>
       <c r="K60">
-        <v>0.2073170731707317</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="L60">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M60">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2308,22 +2308,22 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>0.2068965517241379</v>
+        <v>0.2096219931271478</v>
       </c>
       <c r="L61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M61">
         <v>61</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <v>230</v>
@@ -2334,25 +2334,25 @@
         <v>71</v>
       </c>
       <c r="K62">
-        <v>0.2039800995024875</v>
+        <v>0.2086720867208672</v>
       </c>
       <c r="L62">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="M62">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>160</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2360,13 +2360,13 @@
         <v>72</v>
       </c>
       <c r="K63">
-        <v>0.2016806722689076</v>
+        <v>0.2060606060606061</v>
       </c>
       <c r="L63">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M63">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>190</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2386,25 +2386,25 @@
         <v>73</v>
       </c>
       <c r="K64">
-        <v>0.2</v>
+        <v>0.2016806722689076</v>
       </c>
       <c r="L64">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M64">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>216</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2412,25 +2412,25 @@
         <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1987179487179487</v>
+        <v>0.1988636363636364</v>
       </c>
       <c r="L65">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2444,16 +2444,16 @@
         <v>32</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N66">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
         <v>132</v>
@@ -2464,25 +2464,25 @@
         <v>76</v>
       </c>
       <c r="K67">
-        <v>0.192090395480226</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="L67">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>143</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2490,25 +2490,25 @@
         <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1912568306010929</v>
+        <v>0.1907894736842105</v>
       </c>
       <c r="L68">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M68">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>296</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2516,25 +2516,25 @@
         <v>78</v>
       </c>
       <c r="K69">
-        <v>0.1837708830548926</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="L69">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="M69">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>342</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2542,25 +2542,25 @@
         <v>79</v>
       </c>
       <c r="K70">
-        <v>0.1835443037974684</v>
+        <v>0.1789976133651551</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M70">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>129</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2568,13 +2568,13 @@
         <v>80</v>
       </c>
       <c r="K71">
-        <v>0.1777777777777778</v>
+        <v>0.1779141104294479</v>
       </c>
       <c r="L71">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M71">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>222</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2594,25 +2594,25 @@
         <v>81</v>
       </c>
       <c r="K72">
-        <v>0.1747572815533981</v>
+        <v>0.1772727272727273</v>
       </c>
       <c r="L72">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="M72">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="N72">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>170</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2620,13 +2620,13 @@
         <v>82</v>
       </c>
       <c r="K73">
-        <v>0.1681818181818182</v>
+        <v>0.1734317343173432</v>
       </c>
       <c r="L73">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M73">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>366</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2646,25 +2646,25 @@
         <v>83</v>
       </c>
       <c r="K74">
-        <v>0.1644736842105263</v>
+        <v>0.1594202898550725</v>
       </c>
       <c r="L74">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>381</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2672,13 +2672,13 @@
         <v>84</v>
       </c>
       <c r="K75">
-        <v>0.139344262295082</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="L75">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M75">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2724,25 +2724,25 @@
         <v>86</v>
       </c>
       <c r="K77">
-        <v>0.1348600508905853</v>
+        <v>0.124765478424015</v>
       </c>
       <c r="L77">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="M77">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N77">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O77">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>340</v>
+        <v>933</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2750,25 +2750,25 @@
         <v>87</v>
       </c>
       <c r="K78">
-        <v>0.1251167133520075</v>
+        <v>0.1192528735632184</v>
       </c>
       <c r="L78">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="M78">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="N78">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O78">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>937</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2776,25 +2776,25 @@
         <v>88</v>
       </c>
       <c r="K79">
-        <v>0.1248206599713056</v>
+        <v>0.1096938775510204</v>
       </c>
       <c r="L79">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="M79">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N79">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O79">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>610</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2802,25 +2802,25 @@
         <v>89</v>
       </c>
       <c r="K80">
-        <v>0.09441233140655106</v>
+        <v>0.1070110701107011</v>
       </c>
       <c r="L80">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>470</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2828,25 +2828,25 @@
         <v>90</v>
       </c>
       <c r="K81">
-        <v>0.09141274238227147</v>
+        <v>0.09981515711645102</v>
       </c>
       <c r="L81">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="M81">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N81">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O81">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>328</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2854,25 +2854,25 @@
         <v>91</v>
       </c>
       <c r="K82">
-        <v>0.08872458410351201</v>
+        <v>0.08737864077669903</v>
       </c>
       <c r="L82">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M82">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N82">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O82">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>493</v>
+        <v>376</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2880,25 +2880,25 @@
         <v>92</v>
       </c>
       <c r="K83">
-        <v>0.0823937554206418</v>
+        <v>0.08434782608695653</v>
       </c>
       <c r="L83">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M83">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2906,13 +2906,13 @@
         <v>93</v>
       </c>
       <c r="K84">
-        <v>0.07542579075425791</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L84">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M84">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N84">
         <v>0.91</v>
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>380</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -2932,25 +2932,25 @@
         <v>94</v>
       </c>
       <c r="K85">
-        <v>0.05562913907284768</v>
+        <v>0.04913678618857902</v>
       </c>
       <c r="L85">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M85">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N85">
-        <v>0.78</v>
+        <v>0.73</v>
       </c>
       <c r="O85">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
